--- a/xlsx/安提瓜和巴布达_intext.xlsx
+++ b/xlsx/安提瓜和巴布达_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="895">
   <si>
     <t>安提瓜和巴布达</t>
   </si>
@@ -29,7 +29,7 @@
     <t>安提瓜和巴布达国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_安提瓜和巴布达</t>
+    <t>政策_政策_美国_安提瓜和巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE%E5%9B%BD%E5%BE%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%B8%BD%E7%9A%84%E5%AE%89%E6%8F%90%E7%93%9C%EF%BC%8C%E6%88%91%E4%BB%AC%E5%90%91%E6%82%A8%E8%87%B4%E6%95%AC</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%8E%8B%E5%AE%A4</t>
   </si>
   <si>
-    <t>英國王室</t>
+    <t>英国王室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%8C%E6%AD%8C</t>
   </si>
   <si>
-    <t>頌歌</t>
+    <t>颂歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%91%E5%A5%B3%E7%8E%8B</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%84%E7%BF%B0%E6%96%AF_(%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖約翰斯 (安提瓜和巴布達)</t>
+    <t>圣约翰斯 (安提瓜和巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%84%E7%BF%B0_(%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖約翰 (安地卡及巴布達)</t>
+    <t>圣约翰 (安地卡及巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -209,31 +209,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE%E5%A5%B3%E7%8E%8B</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>安地卡及巴布達總督</t>
+    <t>安地卡及巴布达总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE%E6%80%BB%E7%90%86</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E9%A0%93%C2%B7%E5%B8%83%E6%9C%97</t>
   </si>
   <si>
-    <t>賈斯頓·布朗</t>
+    <t>贾斯顿·布朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E5%8B%92%E6%AF%94%E5%85%83</t>
   </si>
   <si>
-    <t>東加勒比元</t>
+    <t>东加勒比元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.ag</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國武裝部隊列表</t>
+    <t>各国武装部队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
@@ -419,13 +419,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>安地卡及巴布達歷史</t>
+    <t>安地卡及巴布达历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%B2%9B</t>
@@ -497,15 +494,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>安地卡及巴布達行政區劃</t>
+    <t>安地卡及巴布达行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E9%81%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴布達島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%9C%E8%BE%BE%E5%B2%9B</t>
   </si>
   <si>
@@ -515,31 +509,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%96%AC%E6%B2%BB_(%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖喬治 (安地卡及巴布達)</t>
+    <t>圣乔治 (安地卡及巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97_(%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖瑪麗 (安地卡及巴布達)</t>
+    <t>圣玛丽 (安地卡及巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85_(%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖保羅 (安地卡及巴布達)</t>
+    <t>圣保罗 (安地卡及巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%97_(%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖彼得 (安地卡及巴布達)</t>
+    <t>圣彼得 (安地卡及巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A3%9B%E5%88%A9%E6%B5%A6_(%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94)</t>
   </si>
   <si>
-    <t>聖飛利浦 (安地卡及巴布達)</t>
+    <t>圣飞利浦 (安地卡及巴布达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
@@ -581,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>安地卡及巴布達軍事</t>
+    <t>安地卡及巴布达军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -839,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -857,25 +851,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -887,19 +881,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -911,25 +905,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -959,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1037,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1181,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -1199,13 +1193,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -1283,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -1325,15 +1319,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -1361,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1385,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8D%94%E5%A2%83%E5%9F%9F</t>
   </si>
   <si>
-    <t>國協境域</t>
+    <t>国协境域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1397,13 +1385,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>安提瓜和巴布達君主</t>
+    <t>安提瓜和巴布达君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Cook_Islands</t>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>錫蘭自治領</t>
+    <t>锡兰自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1487,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>紐芬蘭自治領</t>
+    <t>纽芬兰自治领</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Federation_of_Nigeria</t>
@@ -1499,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅德西亞</t>
+    <t>罗德西亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sierra_Leone_(Commonwealth_realm)</t>
@@ -1583,9 +1571,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
   </si>
   <si>
@@ -1601,9 +1586,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1613,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1655,9 +1637,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -1871,9 +1850,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
@@ -1913,9 +1889,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
   </si>
   <si>
@@ -1991,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2027,7 +2000,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2081,15 +2054,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89</t>
   </si>
   <si>
@@ -2099,25 +2069,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
   </si>
   <si>
-    <t>巴貝多</t>
+    <t>巴贝多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>貝里斯</t>
+    <t>贝里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
   </si>
   <si>
-    <t>貝南</t>
+    <t>贝南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -2129,21 +2099,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
   </si>
   <si>
@@ -2159,15 +2120,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
   </si>
   <si>
@@ -2183,25 +2141,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
@@ -2213,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -2225,37 +2180,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>迦納</t>
+    <t>迦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>幾內亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>蓋亞那</t>
+    <t>盖亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -2273,15 +2225,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
   </si>
   <si>
@@ -2291,9 +2240,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -2303,13 +2249,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -2321,13 +2264,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -2339,43 +2282,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬達加斯加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B6%AD</t>
   </si>
   <si>
-    <t>馬拉維</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -2393,9 +2327,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B</t>
   </si>
   <si>
@@ -2405,25 +2336,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5</t>
@@ -2441,67 +2363,58 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞</t>
+    <t>巴布亚纽几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E5%8F%8A%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福及尼維斯</t>
+    <t>圣克里斯多福及尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>聖露西亞</t>
+    <t>圣露西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>聖文森</t>
+    <t>圣文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索羅門群島</t>
+    <t>索罗门群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -2513,25 +2426,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E6%BE%8E%E9%87%91%E9%A6%AC%E5%80%8B%E5%88%A5%E9%97%9C%E7%A8%85%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>臺澎金馬個別關稅領域</t>
+    <t>台澎金马个别关税领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -2543,31 +2453,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -2579,7 +2480,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
   </si>
   <si>
-    <t>維德角</t>
+    <t>维德角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -2591,13 +2492,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -2609,37 +2510,34 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -2651,19 +2549,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2675,31 +2573,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
-    <t>荷兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -2711,7 +2606,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -2723,7 +2618,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -2741,37 +2636,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E7%8E%BB%E5%88%A9%E7%93%A6%E7%88%BE%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>美洲玻利瓦爾同盟</t>
+    <t>美洲玻利瓦尔同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2789,7 +2681,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2807,7 +2699,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -5179,7 +5071,7 @@
         <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="G70" t="n">
         <v>17</v>
@@ -5205,10 +5097,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5234,10 +5126,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5263,10 +5155,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -5292,10 +5184,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5321,10 +5213,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5350,10 +5242,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5379,10 +5271,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5437,10 +5329,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -5466,10 +5358,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>7</v>
@@ -5495,10 +5387,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5524,10 +5416,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5553,10 +5445,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5582,10 +5474,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5611,10 +5503,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5640,10 +5532,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5669,10 +5561,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5698,10 +5590,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5727,10 +5619,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5756,10 +5648,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5785,10 +5677,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5814,10 +5706,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5843,10 +5735,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5872,10 +5764,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5901,10 +5793,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5930,10 +5822,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5959,10 +5851,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5988,10 +5880,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6017,10 +5909,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>15</v>
@@ -6046,10 +5938,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6075,10 +5967,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6104,10 +5996,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6133,10 +6025,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>9</v>
@@ -6162,10 +6054,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>7</v>
@@ -6191,10 +6083,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6220,10 +6112,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -6249,10 +6141,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6278,10 +6170,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -6336,10 +6228,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6365,10 +6257,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6394,10 +6286,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6423,10 +6315,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6452,10 +6344,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6481,10 +6373,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6510,10 +6402,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -6539,10 +6431,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6568,10 +6460,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -6597,10 +6489,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -6626,10 +6518,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -6655,10 +6547,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6684,10 +6576,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6713,10 +6605,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -6742,10 +6634,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6771,10 +6663,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -6800,10 +6692,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6829,10 +6721,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6858,10 +6750,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6887,10 +6779,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -6916,10 +6808,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6945,10 +6837,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -6974,10 +6866,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7003,10 +6895,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -7032,10 +6924,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7061,10 +6953,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -7090,10 +6982,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7119,10 +7011,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -7148,10 +7040,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7177,10 +7069,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -7206,10 +7098,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7235,10 +7127,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7264,10 +7156,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -7293,10 +7185,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7322,10 +7214,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7351,10 +7243,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -7380,10 +7272,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7409,10 +7301,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7438,10 +7330,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7467,10 +7359,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7496,10 +7388,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7525,10 +7417,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7554,10 +7446,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7583,10 +7475,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7612,10 +7504,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7641,10 +7533,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7670,10 +7562,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7699,10 +7591,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7728,10 +7620,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7757,10 +7649,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7786,10 +7678,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7815,10 +7707,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7844,10 +7736,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7873,10 +7765,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7902,10 +7794,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7931,10 +7823,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7960,10 +7852,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7989,10 +7881,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8018,10 +7910,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8047,10 +7939,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8076,10 +7968,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -8105,10 +7997,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8134,10 +8026,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8163,10 +8055,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8192,10 +8084,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8221,10 +8113,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8250,10 +8142,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8279,10 +8171,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>7</v>
@@ -8308,10 +8200,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8337,10 +8229,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8366,10 +8258,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8395,10 +8287,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -8424,10 +8316,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8453,10 +8345,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8482,10 +8374,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8511,10 +8403,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8540,10 +8432,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8569,10 +8461,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8598,10 +8490,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8627,10 +8519,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8656,10 +8548,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -8685,10 +8577,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -8714,10 +8606,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8743,10 +8635,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F193" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -8772,10 +8664,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F194" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8801,10 +8693,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F195" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -8830,10 +8722,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8859,10 +8751,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8888,10 +8780,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -8917,10 +8809,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8946,10 +8838,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8975,10 +8867,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -9004,10 +8896,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9033,10 +8925,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9062,10 +8954,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9091,10 +8983,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9120,10 +9012,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9149,10 +9041,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -9178,10 +9070,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9207,10 +9099,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9236,13 +9128,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9265,10 +9157,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9294,10 +9186,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9323,10 +9215,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9352,10 +9244,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9381,10 +9273,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9410,10 +9302,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9439,10 +9331,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9468,10 +9360,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9497,10 +9389,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9526,10 +9418,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9555,10 +9447,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9584,10 +9476,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9613,10 +9505,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F223" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9642,10 +9534,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9671,10 +9563,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9700,10 +9592,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9729,10 +9621,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9758,10 +9650,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9787,10 +9679,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9816,10 +9708,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9845,10 +9737,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9874,10 +9766,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9903,10 +9795,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9932,10 +9824,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9961,10 +9853,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9990,10 +9882,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10019,10 +9911,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10048,10 +9940,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -10077,10 +9969,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
         <v>21</v>
@@ -10106,10 +9998,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10135,10 +10027,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10164,10 +10056,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10193,10 +10085,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10222,10 +10114,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -10251,10 +10143,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10280,10 +10172,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10309,10 +10201,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10338,10 +10230,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10367,10 +10259,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10396,10 +10288,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10425,10 +10317,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10454,10 +10346,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10483,10 +10375,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10512,10 +10404,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10541,10 +10433,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10570,10 +10462,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10599,10 +10491,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10628,10 +10520,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10657,10 +10549,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10686,10 +10578,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10715,10 +10607,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10744,10 +10636,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10773,10 +10665,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10802,10 +10694,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10831,10 +10723,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10860,10 +10752,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10889,10 +10781,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10918,10 +10810,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10947,10 +10839,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10976,10 +10868,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>210</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11005,10 +10897,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11034,10 +10926,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11063,10 +10955,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>252</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11092,10 +10984,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11121,10 +11013,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11150,10 +11042,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11179,10 +11071,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11208,10 +11100,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11237,10 +11129,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11266,10 +11158,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11295,10 +11187,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11324,10 +11216,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>258</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11353,10 +11245,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11382,10 +11274,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11411,10 +11303,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11440,10 +11332,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11469,10 +11361,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11498,10 +11390,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11527,10 +11419,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G289" t="n">
         <v>3</v>
@@ -11556,10 +11448,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11585,10 +11477,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11614,10 +11506,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11643,10 +11535,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11672,10 +11564,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11701,10 +11593,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11730,10 +11622,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F296" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11759,10 +11651,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>6</v>
@@ -11788,10 +11680,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11817,10 +11709,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11846,10 +11738,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11875,10 +11767,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11904,10 +11796,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11933,10 +11825,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F303" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11962,10 +11854,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11991,10 +11883,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12020,10 +11912,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12049,10 +11941,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12078,10 +11970,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12107,10 +11999,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12136,10 +12028,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12165,10 +12057,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12194,10 +12086,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12223,10 +12115,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12252,10 +12144,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -12281,10 +12173,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12310,10 +12202,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12339,10 +12231,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12368,10 +12260,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12397,10 +12289,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12426,10 +12318,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>264</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12455,10 +12347,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12484,10 +12376,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12513,10 +12405,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12542,10 +12434,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12571,10 +12463,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12600,10 +12492,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12629,10 +12521,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>386</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12658,10 +12550,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12687,10 +12579,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F329" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12716,10 +12608,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F330" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12745,10 +12637,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12774,10 +12666,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12803,10 +12695,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12832,10 +12724,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12861,10 +12753,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12890,10 +12782,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12919,10 +12811,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12948,10 +12840,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12977,10 +12869,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13006,10 +12898,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13035,10 +12927,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13064,10 +12956,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13093,10 +12985,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G343" t="n">
         <v>3</v>
@@ -13122,10 +13014,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13151,10 +13043,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13180,10 +13072,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13209,10 +13101,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13238,10 +13130,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13267,10 +13159,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F349" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13296,10 +13188,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13325,10 +13217,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F351" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13354,10 +13246,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F352" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13383,10 +13275,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13412,10 +13304,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -13441,10 +13333,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -13470,10 +13362,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F356" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13499,10 +13391,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F357" t="s">
-        <v>690</v>
+        <v>328</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13528,10 +13420,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -13557,10 +13449,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13586,10 +13478,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13615,10 +13507,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13644,10 +13536,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13673,10 +13565,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13702,10 +13594,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>704</v>
+        <v>336</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13731,10 +13623,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F365" t="s">
-        <v>706</v>
+        <v>536</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13760,10 +13652,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F366" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13789,10 +13681,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="F367" t="s">
-        <v>708</v>
+        <v>543</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13818,10 +13710,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="F368" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13847,10 +13739,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F369" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13876,10 +13768,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F370" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13905,10 +13797,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F371" t="s">
-        <v>716</v>
+        <v>549</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13934,10 +13826,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F372" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13963,10 +13855,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F373" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13992,10 +13884,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G374" t="n">
         <v>4</v>
@@ -14021,10 +13913,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F375" t="s">
-        <v>722</v>
+        <v>214</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14050,10 +13942,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -14079,10 +13971,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14108,10 +14000,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14137,10 +14029,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F379" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14166,10 +14058,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F380" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14195,10 +14087,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="F381" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14224,10 +14116,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F382" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14253,10 +14145,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F383" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14282,10 +14174,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="F384" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14311,10 +14203,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F385" t="s">
-        <v>742</v>
+        <v>567</v>
       </c>
       <c r="G385" t="n">
         <v>3</v>
@@ -14340,10 +14232,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F386" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14369,10 +14261,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F387" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14398,10 +14290,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F388" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14427,10 +14319,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14456,10 +14348,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14485,10 +14377,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F391" t="s">
-        <v>754</v>
+        <v>571</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14514,10 +14406,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="F392" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14543,10 +14435,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="F393" t="s">
-        <v>758</v>
+        <v>238</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14572,10 +14464,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="F394" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14601,10 +14493,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="F395" t="s">
-        <v>762</v>
+        <v>577</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14630,10 +14522,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="F396" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14659,10 +14551,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="F397" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14688,10 +14580,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="F398" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14717,10 +14609,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="F399" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14746,10 +14638,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="F400" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14775,10 +14667,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="F401" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14804,10 +14696,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="F402" t="s">
-        <v>776</v>
+        <v>589</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14833,10 +14725,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="F403" t="s">
-        <v>778</v>
+        <v>350</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14862,10 +14754,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="F404" t="s">
-        <v>780</v>
+        <v>352</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14891,10 +14783,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="F405" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14920,10 +14812,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="F406" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14949,10 +14841,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="F407" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14978,10 +14870,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="F408" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15007,10 +14899,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="F409" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15036,10 +14928,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="F410" t="s">
-        <v>792</v>
+        <v>597</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15065,10 +14957,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="F411" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15094,10 +14986,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="F412" t="s">
-        <v>796</v>
+        <v>601</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15123,10 +15015,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="F413" t="s">
-        <v>798</v>
+        <v>360</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15152,10 +15044,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="F414" t="s">
-        <v>800</v>
+        <v>603</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15181,10 +15073,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="F415" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15210,10 +15102,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="F416" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="G416" t="n">
         <v>5</v>
@@ -15239,10 +15131,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F417" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15268,10 +15160,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="F418" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15297,10 +15189,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="F419" t="s">
-        <v>808</v>
+        <v>222</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15326,10 +15218,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="F420" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15355,10 +15247,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="F421" t="s">
-        <v>812</v>
+        <v>612</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15384,10 +15276,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="F422" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15413,10 +15305,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="F423" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15442,10 +15334,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>817</v>
+        <v>789</v>
       </c>
       <c r="F424" t="s">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15471,10 +15363,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="F425" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15500,10 +15392,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="F426" t="s">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15529,10 +15421,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="F427" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15558,10 +15450,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="F428" t="s">
-        <v>826</v>
+        <v>620</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15587,10 +15479,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>827</v>
+        <v>798</v>
       </c>
       <c r="F429" t="s">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15616,10 +15508,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>829</v>
+        <v>800</v>
       </c>
       <c r="F430" t="s">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15645,10 +15537,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="F431" t="s">
-        <v>832</v>
+        <v>803</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15674,10 +15566,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>833</v>
+        <v>804</v>
       </c>
       <c r="F432" t="s">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15703,10 +15595,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>835</v>
+        <v>806</v>
       </c>
       <c r="F433" t="s">
-        <v>836</v>
+        <v>629</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15732,10 +15624,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F434" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15761,10 +15653,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="F435" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15790,10 +15682,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>839</v>
+        <v>809</v>
       </c>
       <c r="F436" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15819,10 +15711,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>841</v>
+        <v>811</v>
       </c>
       <c r="F437" t="s">
-        <v>842</v>
+        <v>396</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15848,10 +15740,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="F438" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15877,10 +15769,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="F439" t="s">
-        <v>846</v>
+        <v>270</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15906,10 +15798,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="F440" t="s">
-        <v>848</v>
+        <v>272</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15935,10 +15827,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="F441" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15964,10 +15856,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="F442" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15993,10 +15885,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="F443" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16022,10 +15914,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="F444" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16051,10 +15943,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="F445" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16080,10 +15972,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="F446" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16109,10 +16001,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="F447" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16138,10 +16030,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="F448" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16167,10 +16059,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="F449" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16196,10 +16088,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="F450" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16225,10 +16117,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="F451" t="s">
-        <v>870</v>
+        <v>124</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16254,10 +16146,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="F452" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16283,10 +16175,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="F453" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16312,10 +16204,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="F454" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16341,10 +16233,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="F455" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16370,10 +16262,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
       <c r="F456" t="s">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16399,10 +16291,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
       <c r="F457" t="s">
-        <v>882</v>
+        <v>848</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16428,10 +16320,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>883</v>
+        <v>849</v>
       </c>
       <c r="F458" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16457,10 +16349,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>885</v>
+        <v>851</v>
       </c>
       <c r="F459" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16486,10 +16378,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
       <c r="F460" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16515,10 +16407,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>889</v>
+        <v>855</v>
       </c>
       <c r="F461" t="s">
-        <v>890</v>
+        <v>856</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16544,10 +16436,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>891</v>
+        <v>857</v>
       </c>
       <c r="F462" t="s">
-        <v>892</v>
+        <v>856</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16573,10 +16465,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F463" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16602,10 +16494,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F464" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G464" t="n">
         <v>3</v>
@@ -16631,10 +16523,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="F465" t="s">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16660,10 +16552,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>895</v>
+        <v>860</v>
       </c>
       <c r="F466" t="s">
-        <v>896</v>
+        <v>861</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -16689,10 +16581,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>897</v>
+        <v>862</v>
       </c>
       <c r="F467" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16718,10 +16610,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="F468" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16747,10 +16639,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="F469" t="s">
-        <v>902</v>
+        <v>867</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16776,10 +16668,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>903</v>
+        <v>868</v>
       </c>
       <c r="F470" t="s">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16805,10 +16697,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>905</v>
+        <v>870</v>
       </c>
       <c r="F471" t="s">
-        <v>906</v>
+        <v>871</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16834,10 +16726,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="F472" t="s">
-        <v>908</v>
+        <v>128</v>
       </c>
       <c r="G472" t="n">
         <v>5</v>
@@ -16863,10 +16755,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>909</v>
+        <v>873</v>
       </c>
       <c r="F473" t="s">
-        <v>910</v>
+        <v>874</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16892,10 +16784,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>911</v>
+        <v>875</v>
       </c>
       <c r="F474" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16921,10 +16813,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="F475" t="s">
-        <v>914</v>
+        <v>878</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16950,10 +16842,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>915</v>
+        <v>879</v>
       </c>
       <c r="F476" t="s">
-        <v>916</v>
+        <v>880</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16979,10 +16871,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>917</v>
+        <v>881</v>
       </c>
       <c r="F477" t="s">
-        <v>918</v>
+        <v>882</v>
       </c>
       <c r="G477" t="n">
         <v>3</v>
@@ -17008,10 +16900,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>919</v>
+        <v>883</v>
       </c>
       <c r="F478" t="s">
-        <v>920</v>
+        <v>884</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17037,10 +16929,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>921</v>
+        <v>885</v>
       </c>
       <c r="F479" t="s">
-        <v>922</v>
+        <v>886</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17066,10 +16958,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>923</v>
+        <v>887</v>
       </c>
       <c r="F480" t="s">
-        <v>924</v>
+        <v>888</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17095,10 +16987,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="F481" t="s">
-        <v>926</v>
+        <v>890</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17124,10 +17016,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>927</v>
+        <v>891</v>
       </c>
       <c r="F482" t="s">
-        <v>928</v>
+        <v>892</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17153,10 +17045,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>929</v>
+        <v>893</v>
       </c>
       <c r="F483" t="s">
-        <v>930</v>
+        <v>894</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>

--- a/xlsx/安提瓜和巴布达_intext.xlsx
+++ b/xlsx/安提瓜和巴布达_intext.xlsx
@@ -29,7 +29,7 @@
     <t>安提瓜和巴布达国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_安提瓜和巴布达</t>
+    <t>体育运动_体育运动_伊朗_安提瓜和巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE%E5%9B%BD%E5%BE%BD</t>
